--- a/TestData/test.xlsx
+++ b/TestData/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372AD577-8217-4400-9D42-4A30B87DEC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B1EFB2-2A24-41CE-A415-CDB96836A894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="18756" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="1584" windowWidth="18756" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>Operation</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>./TestData/OneForAll/addVcenter.xlsx</t>
+  </si>
+  <si>
+    <t>./TestData/OneForAll/editVCenterData.xlsx</t>
+  </si>
+  <si>
+    <t>Change Vcenter Details</t>
   </si>
 </sst>
 </file>
@@ -551,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -922,6 +928,20 @@
         <v>24</v>
       </c>
     </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
